--- a/ProjectPlan/DataSheet.xlsx
+++ b/ProjectPlan/DataSheet.xlsx
@@ -6,20 +6,23 @@
     <sheet state="visible" name="라운드" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="우주복" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="수리 도구" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="외계 동물" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="수리 도구-매핑" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="수리 도구-데이터" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="외계 동물" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="외계 동물-시간제한(초)" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjcmpX/YG3jWQSuHHFLAw+qjyV2PA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjDGKasW8fIcaz09EAP6EwxOCYbdg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>라운드</t>
   </si>
@@ -54,6 +57,12 @@
     <t>패널티</t>
   </si>
   <si>
+    <t>효과 수치 1</t>
+  </si>
+  <si>
+    <t>패널티 수치 1</t>
+  </si>
+  <si>
     <t>티타늄 우주복</t>
   </si>
   <si>
@@ -72,7 +81,7 @@
     <t>돋보기 달린 우주복</t>
   </si>
   <si>
-    <t>매 라운드 시작 시 빈 타일을 추가로 하나 밝히고 시작합니다.</t>
+    <t>매 라운드 시작 시 빈 타일을 추가로 1개 밝히고 시작합니다.</t>
   </si>
   <si>
     <t>망원경 달린 우주복</t>
@@ -93,16 +102,16 @@
     <t>패널티 있는 우주복</t>
   </si>
   <si>
-    <t>매 라운드 종료 시 사과를 하나 얻습니다.</t>
-  </si>
-  <si>
-    <t>매 라운드 시작 시 사과를 하나 잃습니다.</t>
+    <t>매 라운드 종료 시 사과를 1개 얻습니다.</t>
+  </si>
+  <si>
+    <t>매 라운드 시작 시 사과를 1개 잃습니다.</t>
   </si>
   <si>
     <t>멍멍이 로봇 사출 우주복</t>
   </si>
   <si>
-    <t>직접 빈 타일을 탐색할 때마다 주변 무작위 지뢰 하나에 깃발을 꽂습니다.</t>
+    <t>직접 빈 타일을 탐색할 때마다 주변 무작위 지뢰 1개에 깃발을 꽂습니다.</t>
   </si>
   <si>
     <t>최대 생명 -1</t>
@@ -126,13 +135,25 @@
     <t>희귀도</t>
   </si>
   <si>
+    <t>조각 개수</t>
+  </si>
+  <si>
+    <t>획득 제한</t>
+  </si>
+  <si>
+    <t>소지 제한</t>
+  </si>
+  <si>
     <t>생명 그릇 조각</t>
   </si>
   <si>
     <t>일반</t>
   </si>
   <si>
-    <t>2개를 모으면 최대 생명이 하나 추가됨</t>
+    <t>2개를 모으면 최대 생명 +1</t>
+  </si>
+  <si>
+    <t>조각</t>
   </si>
   <si>
     <t>사료 한 그릇</t>
@@ -141,10 +162,16 @@
     <t>생명 2개 회복</t>
   </si>
   <si>
+    <t>즉시 사용</t>
+  </si>
+  <si>
     <t>방어막 충전</t>
   </si>
   <si>
-    <t>임시 생명 1개 획득</t>
+    <t>생명이 깎일 때, 생명 대신 먼저 소모됨</t>
+  </si>
+  <si>
+    <t>상시 발동</t>
   </si>
   <si>
     <t>사과</t>
@@ -177,7 +204,7 @@
     <t>수수께끼 씨앗</t>
   </si>
   <si>
-    <t>빈 타일 100개 탐색 후 라운드 종료 시 무작위 음식 2개 획득</t>
+    <t>빈 타일 100개 탐색 후 라운드 종료 시 무작위 음식 2개 획득 후 수수께끼 씨앗은 소모됨</t>
   </si>
   <si>
     <t>추가 우주복</t>
@@ -243,16 +270,43 @@
     <t>최대 생명 증감 및 생명 회복 효과 2배</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>obtainLimit</t>
+  </si>
+  <si>
+    <t>carryLimit</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>효과 수치 2</t>
+  </si>
+  <si>
     <t>토끼</t>
   </si>
   <si>
-    <t>시간 제한이 있고, 시간 제한을 넘기면 일정 시간마다 생명이 깎입니다.</t>
+    <t>시간 제한이 있고, 시간 제한을 넘기면 일정 시간마다 생명이 1 깎입니다.</t>
   </si>
   <si>
     <t>땃쥐</t>
   </si>
   <si>
-    <t>탐색당 시간 제한이 있고, 시간 제한을 넘기면 일정 시간마다 생명이 깎입니다.</t>
+    <t>탐색당 시간 제한이 있고, 시간 제한을 넘기면 일정 시간마다 생명이 1 깎입니다.</t>
   </si>
   <si>
     <t>잉어</t>
@@ -264,13 +318,13 @@
     <t>개복치</t>
   </si>
   <si>
-    <t>지뢰를 탐색하면 생명이 추가로 하나 더 깎입니다.</t>
+    <t>지뢰를 탐색하면 생명이 추가로 1 더 깎입니다.</t>
   </si>
   <si>
     <t>참새</t>
   </si>
   <si>
-    <t>10번 탐색할 때마다 무작위 지뢰 하나가 움직입니다.</t>
+    <t>10번 탐색할 때마다 무작위 지뢰 1개가 움직입니다.</t>
   </si>
   <si>
     <t>비둘기</t>
@@ -306,7 +360,7 @@
     <t>돼지</t>
   </si>
   <si>
-    <t>라운드 종료 시 얻을 수 있는 보상 중 하나가 비활성화됩니다.</t>
+    <t>라운드 종료 시 얻을 수 있는 보상 중 1개가 비활성화됩니다.</t>
   </si>
   <si>
     <t>소</t>
@@ -336,19 +390,19 @@
     <t>금붕어</t>
   </si>
   <si>
-    <t>숫자가 하나씩 높게 표시됩니다.</t>
+    <t>숫자가 1씩 높게 표시됩니다.</t>
   </si>
   <si>
     <t>은붕어</t>
   </si>
   <si>
-    <t>숫자가 하나씩 낮게 표시됩니다.</t>
+    <t>숫자가 1씩 낮게 표시됩니다.</t>
   </si>
   <si>
     <t>까마귀</t>
   </si>
   <si>
-    <t>완벽한 승리를 하지 않으면 생명을 하나 잃습니다.</t>
+    <t>완벽한 승리를 하지 않으면 생명을 1 잃습니다.</t>
   </si>
   <si>
     <t>닭</t>
@@ -366,14 +420,14 @@
     <t>다람쥐</t>
   </si>
   <si>
-    <t>무작위 음식을 하나 잃습니다.</t>
+    <t>무작위 음식을 1개 잃습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -390,6 +444,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -416,10 +475,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +507,18 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -649,7 +726,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.33"/>
+    <col customWidth="1" min="1" max="1" width="5.33"/>
+    <col customWidth="1" min="2" max="2" width="9.22"/>
+    <col customWidth="1" min="3" max="4" width="8.78"/>
+    <col customWidth="1" min="5" max="5" width="12.11"/>
+    <col customWidth="1" min="6" max="6" width="8.78"/>
+    <col customWidth="1" min="7" max="7" width="12.11"/>
+    <col customWidth="1" min="8" max="26" width="8.33"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -1934,7 +2017,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.33"/>
+    <col customWidth="1" min="1" max="1" width="19.89"/>
+    <col customWidth="1" min="2" max="2" width="15.89"/>
+    <col customWidth="1" min="3" max="3" width="56.89"/>
+    <col customWidth="1" min="4" max="4" width="32.22"/>
+    <col customWidth="1" min="5" max="26" width="8.33"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -1950,116 +2037,161 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
+      <c r="E10" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="1"/>
@@ -3070,7 +3202,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.33"/>
+    <col customWidth="1" min="1" max="1" width="8.33"/>
+    <col customWidth="1" min="2" max="2" width="6.22"/>
+    <col customWidth="1" min="3" max="3" width="67.44"/>
+    <col customWidth="1" min="4" max="4" width="8.44"/>
+    <col customWidth="1" min="5" max="26" width="8.33"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -3078,229 +3214,388 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>99.0</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>99.0</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>99.0</v>
       </c>
     </row>
     <row r="7" ht="18.0" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>99.0</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="18.0" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="18.0" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12" ht="18.0" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>99.0</v>
       </c>
     </row>
     <row r="13" ht="18.0" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>99.0</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>99.0</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="18.0" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="18.0" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="18.0" customHeight="1"/>
@@ -4304,229 +4599,1060 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="67.44"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <f>'수리 도구'!A2</f>
+        <v>생명 그릇 조각</v>
+      </c>
+      <c r="B2" s="2">
+        <f>VLOOKUP('수리 도구'!B2,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'수리 도구'!D2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>'수리 도구'!C2</f>
+        <v>2개를 모으면 최대 생명 +1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>VLOOKUP('수리 도구'!E2,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'수리 도구'!F2</f>
+        <v>99</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'수리 도구'!G2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <f>'수리 도구'!A3</f>
+        <v>사료 한 그릇</v>
+      </c>
+      <c r="B3" s="2">
+        <f>VLOOKUP('수리 도구'!B3,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>'수리 도구'!D3</f>
+        <v/>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>'수리 도구'!C3</f>
+        <v>생명 2개 회복</v>
+      </c>
+      <c r="E3" s="2">
+        <f>VLOOKUP('수리 도구'!E3,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'수리 도구'!F3</f>
+        <v>99</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'수리 도구'!G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <f>'수리 도구'!A4</f>
+        <v>방어막 충전</v>
+      </c>
+      <c r="B4" s="2">
+        <f>VLOOKUP('수리 도구'!B4,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>'수리 도구'!D4</f>
+        <v/>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>'수리 도구'!C4</f>
+        <v>생명이 깎일 때, 생명 대신 먼저 소모됨</v>
+      </c>
+      <c r="E4" s="2">
+        <f>VLOOKUP('수리 도구'!E4,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'수리 도구'!F4</f>
+        <v>99</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'수리 도구'!G4</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <f>'수리 도구'!A5</f>
+        <v>사과</v>
+      </c>
+      <c r="B5" s="2">
+        <f>VLOOKUP('수리 도구'!B5,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>'수리 도구'!D5</f>
+        <v/>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>'수리 도구'!C5</f>
+        <v>수리 도구 목록 새로고침</v>
+      </c>
+      <c r="E5" s="2">
+        <f>VLOOKUP('수리 도구'!E5,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'수리 도구'!F5</f>
+        <v>99</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'수리 도구'!G5</f>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
+      <c r="A6" s="2" t="str">
+        <f>'수리 도구'!A6</f>
+        <v>마늘</v>
+      </c>
+      <c r="B6" s="2">
+        <f>VLOOKUP('수리 도구'!B6,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>'수리 도구'!D6</f>
+        <v/>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>'수리 도구'!C6</f>
+        <v>외계 동물 무효화</v>
+      </c>
+      <c r="E6" s="2">
+        <f>VLOOKUP('수리 도구'!E6,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'수리 도구'!F6</f>
+        <v>99</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'수리 도구'!G6</f>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>85</v>
+      <c r="A7" s="2" t="str">
+        <f>'수리 도구'!A7</f>
+        <v>오렌지</v>
+      </c>
+      <c r="B7" s="2">
+        <f>VLOOKUP('수리 도구'!B7,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>'수리 도구'!D7</f>
+        <v/>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>'수리 도구'!C7</f>
+        <v>선택한 타일 1개 판별</v>
+      </c>
+      <c r="E7" s="2">
+        <f>VLOOKUP('수리 도구'!E7,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <f>'수리 도구'!F7</f>
+        <v>99</v>
+      </c>
+      <c r="G7" s="2">
+        <f>'수리 도구'!G7</f>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>87</v>
+      <c r="A8" s="2" t="str">
+        <f>'수리 도구'!A8</f>
+        <v>희귀 수리 도구 조각</v>
+      </c>
+      <c r="B8" s="2">
+        <f>VLOOKUP('수리 도구'!B8,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f>'수리 도구'!D8</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>'수리 도구'!C8</f>
+        <v>3개를 모으면 희귀 수리 도구 보상을 획득</v>
+      </c>
+      <c r="E8" s="2">
+        <f>VLOOKUP('수리 도구'!E8,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <f>'수리 도구'!F8</f>
+        <v>99</v>
+      </c>
+      <c r="G8" s="2">
+        <f>'수리 도구'!G8</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>89</v>
+      <c r="A9" s="2" t="str">
+        <f>'수리 도구'!A9</f>
+        <v>수수께끼 씨앗</v>
+      </c>
+      <c r="B9" s="2">
+        <f>VLOOKUP('수리 도구'!B9,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>'수리 도구'!D9</f>
+        <v/>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>'수리 도구'!C9</f>
+        <v>빈 타일 100개 탐색 후 라운드 종료 시 무작위 음식 2개 획득 후 수수께끼 씨앗은 소모됨</v>
+      </c>
+      <c r="E9" s="2">
+        <f>VLOOKUP('수리 도구'!E9,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f>'수리 도구'!F9</f>
+        <v>99</v>
+      </c>
+      <c r="G9" s="2">
+        <f>'수리 도구'!G9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="str">
+        <f>'수리 도구'!A10</f>
+        <v>추가 우주복</v>
+      </c>
+      <c r="B10" s="2">
+        <f>VLOOKUP('수리 도구'!B10,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>'수리 도구'!D10</f>
+        <v/>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>'수리 도구'!C10</f>
+        <v>우주복 중 무작위 하나를 추가로 얻을 수 있음</v>
+      </c>
+      <c r="E10" s="2">
+        <f>VLOOKUP('수리 도구'!E10,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <f>'수리 도구'!F10</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <f>'수리 도구'!G10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <f>'수리 도구'!A11</f>
+        <v>우주복 개조</v>
+      </c>
+      <c r="B11" s="2">
+        <f>VLOOKUP('수리 도구'!B11,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>'수리 도구'!D11</f>
+        <v/>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>'수리 도구'!C11</f>
+        <v>우주복이 2배의 효과를 가짐</v>
+      </c>
+      <c r="E11" s="2">
+        <f>VLOOKUP('수리 도구'!E11,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f>'수리 도구'!F11</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f>'수리 도구'!G11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="str">
+        <f>'수리 도구'!A12</f>
+        <v>용과</v>
+      </c>
+      <c r="B12" s="2">
+        <f>VLOOKUP('수리 도구'!B12,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>'수리 도구'!D12</f>
+        <v/>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>'수리 도구'!C12</f>
+        <v>무작위 지뢰 타일 5개 판별</v>
+      </c>
+      <c r="E12" s="2">
+        <f>VLOOKUP('수리 도구'!E12,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f>'수리 도구'!F12</f>
+        <v>99</v>
+      </c>
+      <c r="G12" s="2">
+        <f>'수리 도구'!G12</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="str">
+        <f>'수리 도구'!A13</f>
+        <v>청포도</v>
+      </c>
+      <c r="B13" s="2">
+        <f>VLOOKUP('수리 도구'!B13,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>'수리 도구'!D13</f>
+        <v/>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>'수리 도구'!C13</f>
+        <v>모든 2 타일 판별</v>
+      </c>
+      <c r="E13" s="2">
+        <f>VLOOKUP('수리 도구'!E13,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f>'수리 도구'!F13</f>
+        <v>99</v>
+      </c>
+      <c r="G13" s="2">
+        <f>'수리 도구'!G13</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="str">
+        <f>'수리 도구'!A14</f>
+        <v>두리안</v>
+      </c>
+      <c r="B14" s="2">
+        <f>VLOOKUP('수리 도구'!B14,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>'수리 도구'!D14</f>
+        <v/>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>'수리 도구'!C14</f>
+        <v>생명이 1개 깎이는 대신 모든 빈 칸 탐색</v>
+      </c>
+      <c r="E14" s="2">
+        <f>VLOOKUP('수리 도구'!E14,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f>'수리 도구'!F14</f>
+        <v>99</v>
+      </c>
+      <c r="G14" s="2">
+        <f>'수리 도구'!G14</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="str">
+        <f>'수리 도구'!A15</f>
+        <v>자동 깃발 로봇</v>
+      </c>
+      <c r="B15" s="2">
+        <f>VLOOKUP('수리 도구'!B15,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>'수리 도구'!D15</f>
+        <v/>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>'수리 도구'!C15</f>
+        <v>빈 타일을 3번 탐색할 때마다 주변 무작위 지뢰 하나에 깃발을 꽂음</v>
+      </c>
+      <c r="E15" s="2">
+        <f>VLOOKUP('수리 도구'!E15,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f>'수리 도구'!F15</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f>'수리 도구'!G15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="str">
+        <f>'수리 도구'!A16</f>
+        <v>자동 계산 로봇</v>
+      </c>
+      <c r="B16" s="2">
+        <f>VLOOKUP('수리 도구'!B16,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>'수리 도구'!D16</f>
+        <v/>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>'수리 도구'!C16</f>
+        <v>빈 타일을 3번 탐색할 때마다 주변 무작위 숫자 타일 하나를 탐색함</v>
+      </c>
+      <c r="E16" s="2">
+        <f>VLOOKUP('수리 도구'!E16,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f>'수리 도구'!F16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f>'수리 도구'!G16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="str">
+        <f>'수리 도구'!A17</f>
+        <v>턱수염 로봇</v>
+      </c>
+      <c r="B17" s="2">
+        <f>VLOOKUP('수리 도구'!B17,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>'수리 도구'!D17</f>
+        <v/>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>'수리 도구'!C17</f>
+        <v>앞으로 일반 수리 도구 보상은 2번 획득할 수 있음</v>
+      </c>
+      <c r="E17" s="2">
+        <f>VLOOKUP('수리 도구'!E17,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f>'수리 도구'!F17</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f>'수리 도구'!G17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="str">
+        <f>'수리 도구'!A18</f>
+        <v>하얀 별</v>
+      </c>
+      <c r="B18" s="2">
+        <f>VLOOKUP('수리 도구'!B18,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>'수리 도구'!D18</f>
+        <v/>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>'수리 도구'!C18</f>
+        <v>앞으로 희귀 수리 도구 보상은 3번 획득할 수 있음</v>
+      </c>
+      <c r="E18" s="2">
+        <f>VLOOKUP('수리 도구'!E18,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f>'수리 도구'!F18</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f>'수리 도구'!G18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="str">
+        <f>'수리 도구'!A19</f>
+        <v>풍요의 뿔</v>
+      </c>
+      <c r="B19" s="2">
+        <f>VLOOKUP('수리 도구'!B19,'수리 도구-매핑'!$A$2:$B$3,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>'수리 도구'!D19</f>
+        <v/>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>'수리 도구'!C19</f>
+        <v>최대 생명 증감 및 생명 회복 효과 2배</v>
+      </c>
+      <c r="E19" s="2">
+        <f>VLOOKUP('수리 도구'!E19,'수리 도구-매핑'!$C$2:$D$5,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f>'수리 도구'!F19</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f>'수리 도구'!G19</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="60.89"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="5"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="C36" s="4"/>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>210.0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>320.0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="6">
+        <v>700.0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="6">
+        <v>930.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1200.0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1500.0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1800.0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>130.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/ProjectPlan/DataSheet.xlsx
+++ b/ProjectPlan/DataSheet.xlsx
@@ -297,7 +297,7 @@
     <t>효과 수치 2</t>
   </si>
   <si>
-    <t>토끼</t>
+    <t>표범</t>
   </si>
   <si>
     <t>시간 제한이 있고, 시간 제한을 넘기면 일정 시간마다 생명이 1 깎입니다.</t>
@@ -309,31 +309,31 @@
     <t>탐색당 시간 제한이 있고, 시간 제한을 넘기면 일정 시간마다 생명이 1 깎입니다.</t>
   </si>
   <si>
-    <t>잉어</t>
+    <t>뱀</t>
   </si>
   <si>
     <t>깃발을 사용할 수 없습니다.</t>
   </si>
   <si>
-    <t>개복치</t>
+    <t>앵무새</t>
   </si>
   <si>
     <t>지뢰를 탐색하면 생명이 추가로 1 더 깎입니다.</t>
   </si>
   <si>
-    <t>참새</t>
+    <t>청둥오리</t>
   </si>
   <si>
     <t>10번 탐색할 때마다 무작위 지뢰 1개가 움직입니다.</t>
   </si>
   <si>
-    <t>비둘기</t>
+    <t>곰</t>
   </si>
   <si>
     <t>지뢰가 20% 더 많아집니다.</t>
   </si>
   <si>
-    <t>벌</t>
+    <t>청설모</t>
   </si>
   <si>
     <t>판의 가로, 세로가 10% 짧아집니다.</t>
@@ -345,25 +345,25 @@
     <t>남은 지뢰 개수를 알 수 없습니다.</t>
   </si>
   <si>
-    <t>독수리</t>
+    <t>일각고래</t>
   </si>
   <si>
     <t>무작위 미탐색 1타일은 탐색할 수 없습니다. 매 탐색 시마다 위치가 바뀝니다.</t>
   </si>
   <si>
-    <t>사막여우</t>
+    <t>가젤</t>
   </si>
   <si>
     <t>지뢰가 1개 더 겹쳐 있을 수 있습니다.</t>
   </si>
   <si>
-    <t>돼지</t>
+    <t>순록</t>
   </si>
   <si>
     <t>라운드 종료 시 얻을 수 있는 보상 중 1개가 비활성화됩니다.</t>
   </si>
   <si>
-    <t>소</t>
+    <t>고래</t>
   </si>
   <si>
     <t>최대 생명 증감 효과 이외의 우주복의 효과가 비활성화됩니다.</t>
@@ -381,25 +381,25 @@
     <t>타일의 모양이 육각형으로 바뀝니다.(강아지에게만 등장합니다)</t>
   </si>
   <si>
-    <t>거미</t>
+    <t>이구아나</t>
   </si>
   <si>
     <t>첫 탐색으로 주어지는 빈 타일은 구석의 타일입니다.</t>
   </si>
   <si>
-    <t>금붕어</t>
+    <t>흰색토끼</t>
   </si>
   <si>
     <t>숫자가 1씩 높게 표시됩니다.</t>
   </si>
   <si>
-    <t>은붕어</t>
+    <t>회색토끼</t>
   </si>
   <si>
     <t>숫자가 1씩 낮게 표시됩니다.</t>
   </si>
   <si>
-    <t>까마귀</t>
+    <t>원숭이</t>
   </si>
   <si>
     <t>완벽한 승리를 하지 않으면 생명을 1 잃습니다.</t>
@@ -411,7 +411,7 @@
     <t>임시 생명을 사용할 수 없습니다.</t>
   </si>
   <si>
-    <t>나무늘보</t>
+    <t>거위</t>
   </si>
   <si>
     <t>음식을 사용할 수 없습니다.</t>
